--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\DataDrivenFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sami/IdeaProjects/DataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17400" windowHeight="6440"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -417,13 +420,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -431,7 +437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -439,7 +445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -447,7 +453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -464,13 +470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -504,7 +510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -521,7 +527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -538,7 +544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -568,9 +574,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -578,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17400" windowHeight="6440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17400" windowHeight="6440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -420,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
